--- a/Documentation/Query/Title.xlsx
+++ b/Documentation/Query/Title.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freeware Sys\Desktop\Project\Book Bank\Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\JProjects\Book_Store\Documentation\Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>ISBN</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Database Book</t>
   </si>
   <si>
-    <t>Sixth</t>
-  </si>
-  <si>
     <t>Year_Publish</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>DataStructure</t>
   </si>
   <si>
-    <t>Tenth</t>
-  </si>
-  <si>
     <t>E:/github/Jprojects/DS2.jpg</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Oops</t>
   </si>
   <si>
-    <t>Ninth</t>
-  </si>
-  <si>
     <t>XYZ Publication</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>123-456-123456-9</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>History</t>
   </si>
   <si>
@@ -185,12 +173,6 @@
     <t>AVB</t>
   </si>
   <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
     <t>Geography</t>
   </si>
   <si>
@@ -206,52 +188,19 @@
     <t>French</t>
   </si>
   <si>
-    <t>123-123-234</t>
-  </si>
-  <si>
-    <t>India Today</t>
-  </si>
-  <si>
-    <t>Magzine</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>432-213-123</t>
-  </si>
-  <si>
-    <t>Tech2</t>
-  </si>
-  <si>
-    <t>456-123-453</t>
-  </si>
-  <si>
-    <t>Maxima</t>
-  </si>
-  <si>
-    <t>Fashion</t>
-  </si>
-  <si>
     <t>Arts</t>
   </si>
   <si>
-    <t>Magizne-Daily</t>
-  </si>
-  <si>
-    <t>Magzine Weekly</t>
-  </si>
-  <si>
-    <t>Magzine Monthly</t>
-  </si>
-  <si>
-    <t>TEC Publication</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oops Programming </t>
   </si>
   <si>
     <t>Database System Con.</t>
+  </si>
+  <si>
+    <t>123-098-987678-9</t>
+  </si>
+  <si>
+    <t>Datastructure 2nd Ed</t>
   </si>
 </sst>
 </file>
@@ -287,9 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -659,31 +609,31 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>36529</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>50</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
       </c>
       <c r="K2">
         <v>15</v>
@@ -698,48 +648,48 @@
         <v>41239</v>
       </c>
       <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
         <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
       </c>
       <c r="Q2">
         <v>987654321</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>36529</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -754,48 +704,48 @@
         <v>41239</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3">
         <v>987654321</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>36529</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -810,48 +760,48 @@
         <v>41239</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q4">
         <v>987654321</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>35819</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -866,48 +816,48 @@
         <v>42639</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q5">
         <v>987654321</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>35849</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -922,48 +872,48 @@
         <v>42639</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q6">
         <v>987654321</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>36332</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -978,48 +928,48 @@
         <v>42639</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q7">
         <v>987654321</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>36559</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -1034,48 +984,48 @@
         <v>42639</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q8">
         <v>987654321</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>35091</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1090,184 +1040,72 @@
         <v>42639</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>987654321</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="1">
-        <v>35481</v>
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>37987</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="N10" s="1">
         <v>42639</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q10">
         <v>987654321</v>
       </c>
       <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="1">
-        <v>35970</v>
-      </c>
-      <c r="F11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11">
-        <v>15</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>65</v>
-      </c>
-      <c r="N11" s="1">
-        <v>42639</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11">
-        <v>987654321</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1">
-        <v>36198</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>124</v>
-      </c>
-      <c r="N12" s="1">
-        <v>42639</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12">
-        <v>987654321</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
